--- a/変態は踊るWebゲーム開発指示書.xlsx
+++ b/変態は踊るWebゲーム開発指示書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbfa402375cd2dd8/Desktop/game/変態は踊る/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{F1ACA8C2-00E5-42E4-8CE6-1E272D4FAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4214FA15-9FBF-4EC1-BBB0-FCC39EAFA644}"/>
+  <xr:revisionPtr revIDLastSave="548" documentId="13_ncr:1_{F1ACA8C2-00E5-42E4-8CE6-1E272D4FAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DAEC812-1A50-42D0-8148-3B3B1AE87667}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="画面_参考用画像" sheetId="14" r:id="rId13"/>
     <sheet name="リザルト画面" sheetId="9" r:id="rId14"/>
     <sheet name="オリジナル要素" sheetId="11" r:id="rId15"/>
+    <sheet name="オリジナル要素改修" sheetId="17" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="874">
   <si>
     <t>あなたは熟練したWebゲーム開発者です。</t>
   </si>
@@ -1490,12 +1492,6 @@
     <t xml:space="preserve">  - 変態が負けた場合 → `isWinner: false` とする。</t>
   </si>
   <si>
-    <t>開発中のカードゲーム「変態は踊る」に、オリジナル要素として**「枕詞（二つ名）システム」**を追加実装してください。</t>
-  </si>
-  <si>
-    <t>このシステムは、プレイヤー名にランダムな装飾語（枕詞）を付与し、ゲームの勝敗（特に変態の敗北）によってその名前が固定化（呪い化）される機能です。</t>
-  </si>
-  <si>
     <t>- `DangerWords`: 変態カードに付与される危険なワードリスト（例: "指名手配の", "獄中の", "裏切りの", "追放された"...）</t>
   </si>
   <si>
@@ -2641,12 +2637,919 @@
   <si>
     <t>- 対象: `変態発見者`, `アリバイ`, `異常性癖者`, `一般人`</t>
   </si>
+  <si>
+    <t>開発中のカードゲーム「変態は踊る」に、オリジナル要素として**「枕詞（二つ名）システム」**を追加実装してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このシステムは、プレイヤー名にランダムな装飾語（枕詞）を付与し、ゲームの勝敗（特に変態の敗北）によってその名前が固定化（呪い化）される機能です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたはWebゲーム開発のロジック設計およびUI実装のエキスパートです。</t>
+  </si>
+  <si>
+    <t>以前作成したオリジナル要素「枕詞システム」を改修し、新たに**「変態度（Hentai Level）システム」**を実装してください。</t>
+  </si>
+  <si>
+    <t>このシステムは、プレイヤーの行動結果（勝敗・役職）に応じて `0` から `4` までのパラメーターが変動し、それに応じて「二つ名（Prefix）」が進化・悪化していく機能です。</t>
+  </si>
+  <si>
+    <t>### A. プレイヤー情報の更新 (`Player` type)</t>
+  </si>
+  <si>
+    <t>各プレイヤーの状態管理に以下のフィールドを追加・変更してください。</t>
+  </si>
+  <si>
+    <t>- `hentaiLevel`: number (0〜4の整数。初期値は0)</t>
+  </si>
+  <si>
+    <t>- `currentPrefix`: string | null (現在表示中の二つ名全体)</t>
+  </si>
+  <si>
+    <t>- `assignedWord`: string | null (現在割り当てられている単語単体)</t>
+  </si>
+  <si>
+    <t>定数ファイルに以下の4種類のリストを定義してください。</t>
+  </si>
+  <si>
+    <t>- `NormalWords`: レベル1用（例: "噂の", "駆け出しの", "腹ペコの"）</t>
+  </si>
+  <si>
+    <t>- `AbnormalWords`: レベル2用（例: "夜霧の", "背徳の", "汗まみれの"）</t>
+  </si>
+  <si>
+    <t>- `DangerWords`: レベル3・4用（例: "指名手配の", "変態", "露出狂", "伝説の"）</t>
+  </si>
+  <si>
+    <t>- `DecorationWords`: レベル4用接頭語（例: "キング・オブ・", "アルティメット", "真・"）</t>
+  </si>
+  <si>
+    <t>## 2. 変態度の計算ロジック (`calculateHentaiLevel`)</t>
+  </si>
+  <si>
+    <t>ゲーム終了時（リザルト画面遷移前）に、全プレイヤーの `hentaiLevel` を以下のルールで更新してください。</t>
+  </si>
+  <si>
+    <t>※レベルは常に **0(最小) 〜 4(最大)** の範囲内に収まるようにクランプ処理(`Math.min/max`)すること。</t>
+  </si>
+  <si>
+    <t>### A. 変態（犯人）が勝利した場合</t>
+  </si>
+  <si>
+    <t>- **敗北したプレイヤー**: レベル `+1` 加算。</t>
+  </si>
+  <si>
+    <t>- **異常性癖者（たくらみ）**: 勝利扱いのため、加算なし（`±0`）。</t>
+  </si>
+  <si>
+    <t>### B. 変態（犯人）が逮捕され敗北した場合</t>
+  </si>
+  <si>
+    <t>- **変態（犯人）自身**:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 現在のレベルが `3` の場合: `+1` して `4` にする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - それ以外の場合: 強制的に `3` にセットする。</t>
+  </si>
+  <si>
+    <t>- **異常性癖者（たくらみ）**: 敗北扱いとなり、レベル `+1` 加算。</t>
+  </si>
+  <si>
+    <t>- **逮捕したプレイヤー（勝利者）**: レベル `-1` 減算。</t>
+  </si>
+  <si>
+    <t>- **その他の勝利プレイヤー（一般人等）**: レベル `-1` 減算。</t>
+  </si>
+  <si>
+    <t>## 3. 表示名生成ロジック (`generateDisplayName`)</t>
+  </si>
+  <si>
+    <t>更新された `hentaiLevel` に基づき、リザルト画面および次回のゲームで使用する名前を生成してください。</t>
+  </si>
+  <si>
+    <t>| レベル | 表示フォーマット | 選出リスト |</t>
+  </si>
+  <si>
+    <t>|:---|:---|:---|</t>
+  </si>
+  <si>
+    <t>| **0** | `[プレイヤー名]` | (なし・通常表示) |</t>
+  </si>
+  <si>
+    <t>| **1** | `[Normal] + [プレイヤー名]` | `NormalWords` からランダム |</t>
+  </si>
+  <si>
+    <t>| **2** | `[Abnormal] + [プレイヤー名]` | `AbnormalWords` からランダム |</t>
+  </si>
+  <si>
+    <t>| **3** | `[Danger] + [プレイヤー名]` | `DangerWords` からランダム |</t>
+  </si>
+  <si>
+    <t>| **4** | `[Decoration] + [Danger] + [プレイヤー名]` | `DecorationWords` + `DangerWords` |</t>
+  </si>
+  <si>
+    <t>## 4. UI実装要件</t>
+  </si>
+  <si>
+    <t>### A. 変態度ゲージ (Hentai Gauge)</t>
+  </si>
+  <si>
+    <t>プレイヤー名の右端に、現在の「変態度」が一目でわかるインジケーターを設置してください。</t>
+  </si>
+  <si>
+    <t>- **表示例**:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - レベル0: (表示なし)</t>
+  </si>
+  <si>
+    <t>- **配置**: 名前表示コンポーネントの右側に `flex` 等で配置。</t>
+  </si>
+  <si>
+    <t>### B. リザルト画面での演出</t>
+  </si>
+  <si>
+    <t>- リザルト画面でレベルが変動した際、数値の変化（例: `Lv.2` -&gt; `Lv.3`）をアニメーションまたは「UP! / DOWN!」のバッジで強調表示してください。</t>
+  </si>
+  <si>
+    <t>- `useHentaiSystem.ts` (レベル計算・名前生成ロジック)</t>
+  </si>
+  <si>
+    <t>- `HentaiGauge.tsx` (レベル表示用UIコンポーネント)</t>
+  </si>
+  <si>
+    <t>- `WordList.ts` (拡張されたワードデータ定義)</t>
+  </si>
+  <si>
+    <t>- **変態（犯人）自身**: 勝利のため、-1減算</t>
+    <rPh sb="24" eb="26">
+      <t>ゲンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダム選出は、レベルが変動したタイミングに行います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※レベル4の場合、「DangerWords」はレベル3の時に選出されたものを引き継ぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  - レベル1: `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>❤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  - レベル2: `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>❤❤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  - レベル3: `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>❤❤❤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>` (警告色: 黄/オレンジ)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  - レベル4: `</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>❤❤❤❤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>` (危険色: 赤/紫、または点滅エフェクト)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- 新しい二つ名が決定されたら,その場で名前表示を更新してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノーマル</t>
+  </si>
+  <si>
+    <t>アブノーマル</t>
+  </si>
+  <si>
+    <t>ぶっぱなす</t>
+  </si>
+  <si>
+    <t>硬すぎる</t>
+  </si>
+  <si>
+    <t>太すぎる</t>
+  </si>
+  <si>
+    <t>早すぎる</t>
+  </si>
+  <si>
+    <t>生がいい</t>
+  </si>
+  <si>
+    <t>踏んでくれ</t>
+  </si>
+  <si>
+    <t>ムッチムチ</t>
+  </si>
+  <si>
+    <t>パイパンの</t>
+  </si>
+  <si>
+    <t>尻を振れ</t>
+  </si>
+  <si>
+    <t>ほらイクぞ</t>
+  </si>
+  <si>
+    <t>跪け</t>
+  </si>
+  <si>
+    <t>豚野郎</t>
+  </si>
+  <si>
+    <t>男の娘</t>
+  </si>
+  <si>
+    <t>アヘ顔晒す</t>
+  </si>
+  <si>
+    <t>駅弁大好き❤</t>
+  </si>
+  <si>
+    <t>チンカス香る</t>
+  </si>
+  <si>
+    <t>おしりを舐める</t>
+  </si>
+  <si>
+    <t>アヘ顔ダブピ</t>
+  </si>
+  <si>
+    <t>ぽこちんフィーバー</t>
+  </si>
+  <si>
+    <t>ノンケを喰らう</t>
+  </si>
+  <si>
+    <t>尿意を我慢している</t>
+    <rPh sb="0" eb="2">
+      <t>ニョウイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>便秘気味な</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>首輪を付けた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濡れてる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敏感な</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高笑いの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無表情の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イケメンの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団地妻</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寝取られの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乳首責めの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショタちんこな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶっとももな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フル勃起の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイズリ大好き</t>
+    <rPh sb="4" eb="6">
+      <t>ダイス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立ちバック好きな</t>
+    <rPh sb="5" eb="6">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おパンティを被った</t>
+    <rPh sb="6" eb="7">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ど変態の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パパ活の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誘い受けの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠し撮り常習犯</t>
+    <rPh sb="4" eb="7">
+      <t>ジョウシュウハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>露出狂の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネマグラ装着中の</t>
+    <rPh sb="5" eb="8">
+      <t>ソウチャクチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手コキのプロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザーメン大好き</t>
+    <rPh sb="4" eb="6">
+      <t>ダイス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名器の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>即ハメの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔騎で屁をこく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>騎乗位大好き</t>
+    <rPh sb="3" eb="5">
+      <t>ダイス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駅弁が得意な</t>
+    <rPh sb="3" eb="5">
+      <t>トクイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お尻好きの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザコちんぽの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケツアクメの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デンジャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飾言葉</t>
+    <rPh sb="0" eb="3">
+      <t>カザリコトバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四つん這いの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉便器の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>童貞の</t>
+    <rPh sb="0" eb="2">
+      <t>ドウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デスアクメの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザコまんこの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鬱勃起の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二穴責めの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アヘ顔の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オナホばれした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絶頂中の</t>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実は3P経験者の</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケイケンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陥没乳首の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アナルセックスしたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>援助交際の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>感度千倍の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮性包茎の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドリルちんちんの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三角木馬経験者</t>
+    <rPh sb="4" eb="7">
+      <t>ケイケンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亀甲縛りのプロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くぎ打ち騎乗位の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アナルを掘る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アナル拡張中の</t>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>露出プレイの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がばがばアナルの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濁点喘ぎの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バキバキ童貞の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>超弩級の</t>
+  </si>
+  <si>
+    <t>フルパワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完熟</t>
+    <rPh sb="0" eb="2">
+      <t>カンジュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国宝級の</t>
+    <rPh sb="0" eb="3">
+      <t>コクホウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今夜は</t>
+    <rPh sb="0" eb="2">
+      <t>コンヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>覚醒した</t>
+    <rPh sb="0" eb="2">
+      <t>カクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キメセクで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>極上の</t>
+    <rPh sb="0" eb="2">
+      <t>ゴクジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くっさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24時間</t>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>超高校級</t>
+    <rPh sb="0" eb="4">
+      <t>チョウコウコウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誰よりも</t>
+    <rPh sb="0" eb="1">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほんのり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぽこち～ん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポコチンティヌス・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犬のように</t>
+    <rPh sb="0" eb="1">
+      <t>イヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伝説の</t>
+    <rPh sb="0" eb="2">
+      <t>デンセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>末期の</t>
+    <rPh sb="0" eb="2">
+      <t>マッキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>禁断の</t>
+    <rPh sb="0" eb="2">
+      <t>キンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選ばれし</t>
+    <rPh sb="0" eb="1">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真・</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>365日</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイクロビキニで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続絶頂</t>
+    <rPh sb="0" eb="2">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼッチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三回戦</t>
+    <rPh sb="0" eb="3">
+      <t>サンカイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>限界突破</t>
+  </si>
+  <si>
+    <t>道具使って</t>
+  </si>
+  <si>
+    <t>オフパコ希望の</t>
+    <rPh sb="4" eb="6">
+      <t>キボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真正包茎の</t>
+    <rPh sb="0" eb="4">
+      <t>シンセイホウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>おぼ”っｲｸﾞ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>❤❤❤</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>贅沢な名だねぇ</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイタク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バカ⇒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元気100倍</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妻に</t>
+    <rPh sb="0" eb="1">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>興奮気味の</t>
+    <rPh sb="0" eb="4">
+      <t>コウフンギミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何かに目覚めた</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉食系の</t>
+    <rPh sb="0" eb="3">
+      <t>ニクショクケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飢えた</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒ぶる</t>
+    <rPh sb="0" eb="1">
+      <t>アラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛べねぇ豚はただの</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴムは絶対付けない</t>
+    <rPh sb="3" eb="5">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイアグラ常中</t>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2759,8 +3662,14 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2770,6 +3679,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2838,7 +3759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2877,6 +3798,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2955,6 +3879,652 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2154216</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E4FB27-1383-AD9F-D5AD-789C637D4B10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="1971675"/>
+          <a:ext cx="1154091" cy="924192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1104901</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2128315</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776F68BB-A74E-5AD3-82EE-DF80DB170F8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104901" y="5235008"/>
+          <a:ext cx="1023414" cy="756217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>714376</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>325335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2047876</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>124098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2915FCA7-BFF2-A84F-DA74-A92E4FFCD12E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714376" y="10031310"/>
+          <a:ext cx="1333500" cy="998913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1057276</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>61564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1914526</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>314598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF51F5F-96AC-A071-97DA-D9D464D20B78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057276" y="11339164"/>
+          <a:ext cx="857250" cy="853109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2028825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>352716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FB7D47-3E67-388B-2B54-E3F5A15941ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="6174184"/>
+          <a:ext cx="933450" cy="912707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1066801</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1985723</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>390799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98BFF1BA-BFCF-F886-4CCD-4F88C2BE945E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066801" y="7219949"/>
+          <a:ext cx="918922" cy="876575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>111778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2056492</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>466724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C8303F4-2689-1376-669E-385C6356AD6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="873778"/>
+          <a:ext cx="1018267" cy="955021"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>244876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003D6DB8-5998-F752-50B1-3321BD0B2051}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="9131701"/>
+          <a:ext cx="1057275" cy="965427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2112869</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>962327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520614EB-A445-B223-7FEA-81EDA99D1BC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="485775"/>
+          <a:ext cx="836519" cy="867077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2012520</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>343226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF1E797-9314-EFA3-4469-1A0A2F653775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="4791075"/>
+          <a:ext cx="698070" cy="886151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2086251</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8D41EA-F9FD-292F-387B-3DB923FE3ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="3673820"/>
+          <a:ext cx="876576" cy="1012480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>43901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1771650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>819405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F3B20A-89BD-B8DD-05DD-EA1A9030C178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="12921701"/>
+          <a:ext cx="638175" cy="775504"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204108</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25324</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>30395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="図 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F13D3E-552D-7DA8-6A12-7C7FC96C9CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3605894" y="33473571"/>
+          <a:ext cx="5944430" cy="3296110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476248</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="正方形/長方形 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBBE998-B996-0FFB-C060-E0CECA032AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3878034" y="35106429"/>
+          <a:ext cx="1483181" cy="1360714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000">
+            <a:alpha val="50000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -9690,7 +11260,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10379,7 +11949,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="4ECDC4"/>
@@ -11069,7 +12639,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11750,7 +13320,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11794,7 +13364,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11949,7 +13519,1997 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8E35EC-1687-03EC-023F-2942F6F75D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4109357" y="31010679"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3341BD3A-7343-D65D-2A5C-4BF099F833D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4830535" y="31010679"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>122463</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702D474B-2F07-AAF8-B792-7A1624AE3592}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5565320" y="30629679"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>204106</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D145BC32-A61B-DBCF-37B9-747C0382D995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6327320" y="31010679"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5406A9-1F6E-E772-8BB4-2B7E8D40459F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4109357" y="27064607"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>231320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9472D2A7-5524-26CB-3990-D716C39DF2D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4830535" y="27486428"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>122463</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="正方形/長方形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C1F454-9431-49BF-CB34-1C9AC34B7335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5565320" y="27064607"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>204106</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="正方形/長方形 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF7A131-2546-BA89-B698-FE6CA6C7171F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6327320" y="27064607"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>615818</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>75787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>302854</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>218558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="矢印: 左右 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48DF02A5-DEAF-FA78-FD12-F968D6F9843C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4574403">
+          <a:off x="4510915" y="29354904"/>
+          <a:ext cx="2102200" cy="367393"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="テキスト ボックス 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F43BCC-079B-962E-81EA-F2D9444E80E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5197929" y="32140071"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プレイヤー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="テキスト ボックス 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DAA3C2-98C7-30AF-4BEB-2F5A30891DB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5197929" y="26520321"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>他プレイヤー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>40824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="矢印: 右 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89542C80-81F4-A161-8110-E8057B2B3B4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10042071" y="29323394"/>
+          <a:ext cx="2204358" cy="462643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="矢印: 右 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{220B92C8-392F-8F9F-129E-6B5FD559E21E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="9225643" y="29336999"/>
+          <a:ext cx="2204357" cy="462643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>653144</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>625930</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="正方形/長方形 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D3F899-4FC3-02E9-A516-E4744F3E8C11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20700000">
+          <a:off x="10858501" y="28956001"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>435427</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>408213</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="正方形/長方形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D38770-897C-EAE8-0A16-186CD226999A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20700000">
+          <a:off x="9960427" y="29132893"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>54431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>639537</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>231323</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="正方形/長方形 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9A9795-02C8-B011-A15C-8C1881A459CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20700000">
+          <a:off x="14273894" y="29200931"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>544287</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>108859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>517073</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="正方形/長方形 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D51D397B-B2ED-6662-9CAF-D9EB3DD45A7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20700000">
+          <a:off x="12790716" y="29255359"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>217716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>108859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="矢印: 環状 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C814A0B-2391-4046-822C-B95B5C1E6432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="13022035" y="29119287"/>
+          <a:ext cx="1796143" cy="1605643"/>
+        </a:xfrm>
+        <a:prstGeom prst="circularArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="矢印: 環状 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC668BA0-6B4B-5EEA-0077-85A2079495DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12926786" y="28479751"/>
+          <a:ext cx="1796143" cy="1605643"/>
+        </a:xfrm>
+        <a:prstGeom prst="circularArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>136074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>68038</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F87F2C39-9B3B-19AB-FE84-A7B292671995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20700000">
+          <a:off x="13879286" y="32221717"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>54431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>421822</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>231323</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="正方形/長方形 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B58302E5-DCB7-9839-C8F1-99558A6465A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21430629">
+          <a:off x="14056179" y="32140074"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>204110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>136074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="正方形/長方形 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE40AE0-D5A3-E33C-EE48-60EE07DAE5BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1111661">
+          <a:off x="14314715" y="32289753"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="矢印: 環状 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838AA66E-8009-43AA-A56A-9C4222CB908E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13185322" y="31650214"/>
+          <a:ext cx="1796143" cy="1605643"/>
+        </a:xfrm>
+        <a:prstGeom prst="circularArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 10255"/>
+            <a:gd name="adj2" fmla="val 1142319"/>
+            <a:gd name="adj3" fmla="val 15790635"/>
+            <a:gd name="adj4" fmla="val 10800000"/>
+            <a:gd name="adj5" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="正方形/長方形 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298C09B6-A9C6-7EFE-ACCB-E8BB1E62CF68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4626428" y="35487429"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>in</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="正方形/長方形 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDBF077F-2DE0-DBD8-CC30-A95190FDBE7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3918857" y="35487429"/>
+          <a:ext cx="653143" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>out</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>163288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="矢印: 右 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684FCE1A-83C4-4F4E-8BA6-DD8BF680932B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4769304" y="35222092"/>
+          <a:ext cx="367391" cy="299356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>163289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="矢印: 右 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F59DCE-B8F4-5766-BFEA-3297FDA861BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4061733" y="35222093"/>
+          <a:ext cx="367391" cy="299356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="直線矢印コネクタ 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470F5692-5408-47E8-A2D6-8A5CFDFF8B05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4245429" y="36480750"/>
+          <a:ext cx="176892" cy="517071"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204108</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>367394</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="テキスト ボックス 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C466CD3-105D-4B18-B2A9-17AD5564A60C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3605894" y="36902572"/>
+          <a:ext cx="3565071" cy="843642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>への指示：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>手札から出たカードと手札に入ってきたカードを記録するエリア</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>162873</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>10490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E487433D-13E9-9D66-6D4C-2309505BD015}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="0"/>
+          <a:ext cx="6792273" cy="6916115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12217,7 +15777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -12260,7 +15820,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -12325,37 +15885,37 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -12368,7 +15928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0498434-EDDB-4274-9DEC-B6D3B30F718D}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -12431,7 +15991,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -12471,7 +16031,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -12642,7 +16202,7 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -12695,7 +16255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7346862-C291-4D29-8550-47CD6D55CADB}">
   <dimension ref="A1:A78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -12773,7 +16333,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -12808,7 +16368,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -12818,7 +16378,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -12853,7 +16413,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -12883,7 +16443,7 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -12963,7 +16523,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -13026,8 +16586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08DC972-A266-4994-A211-0B55A7E03F62}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y42" sqref="Y42"/>
+    <sheetView showGridLines="0" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I156" sqref="I156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13042,7 +16602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422ADE5E-80C6-4450-A1A5-D870AD58CF0F}">
   <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -13135,7 +16695,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -13150,17 +16710,17 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -13185,17 +16745,17 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -13300,12 +16860,12 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -13345,7 +16905,7 @@
   <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13357,12 +16917,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>427</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>428</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -13412,7 +16972,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -13442,7 +17002,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -13482,17 +17042,17 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -13502,12 +17062,12 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -13562,12 +17122,12 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -13608,6 +17168,781 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876DDBB5-88A4-4C6D-91D1-8556E33E2D59}">
+  <dimension ref="A1:A73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="8" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>740</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976779D7-B276-4C4F-9A83-5B750AA20676}">
+  <dimension ref="A2:F38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C3" t="s">
+        <v>863</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>832</v>
+      </c>
+      <c r="F3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C4" t="s">
+        <v>807</v>
+      </c>
+      <c r="E4" t="s">
+        <v>833</v>
+      </c>
+      <c r="F4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>773</v>
+      </c>
+      <c r="C5" t="s">
+        <v>780</v>
+      </c>
+      <c r="E5" t="s">
+        <v>834</v>
+      </c>
+      <c r="F5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C6" t="s">
+        <v>781</v>
+      </c>
+      <c r="E6" t="s">
+        <v>849</v>
+      </c>
+      <c r="F6" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C7" t="s">
+        <v>782</v>
+      </c>
+      <c r="E7" t="s">
+        <v>835</v>
+      </c>
+      <c r="F7" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C8" t="s">
+        <v>808</v>
+      </c>
+      <c r="E8" t="s">
+        <v>836</v>
+      </c>
+      <c r="F8" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>752</v>
+      </c>
+      <c r="C9" t="s">
+        <v>784</v>
+      </c>
+      <c r="E9" t="s">
+        <v>865</v>
+      </c>
+      <c r="F9" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E10" t="s">
+        <v>856</v>
+      </c>
+      <c r="F10" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>775</v>
+      </c>
+      <c r="C11" t="s">
+        <v>786</v>
+      </c>
+      <c r="E11" t="s">
+        <v>839</v>
+      </c>
+      <c r="F11" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>755</v>
+      </c>
+      <c r="C12" t="s">
+        <v>787</v>
+      </c>
+      <c r="E12" t="s">
+        <v>840</v>
+      </c>
+      <c r="F12" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>756</v>
+      </c>
+      <c r="C13" t="s">
+        <v>788</v>
+      </c>
+      <c r="E13" t="s">
+        <v>837</v>
+      </c>
+      <c r="F13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C14" t="s">
+        <v>789</v>
+      </c>
+      <c r="E14" t="s">
+        <v>838</v>
+      </c>
+      <c r="F14" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>777</v>
+      </c>
+      <c r="C15" t="s">
+        <v>846</v>
+      </c>
+      <c r="E15" t="s">
+        <v>841</v>
+      </c>
+      <c r="F15" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>778</v>
+      </c>
+      <c r="C16" t="s">
+        <v>791</v>
+      </c>
+      <c r="E16" t="s">
+        <v>842</v>
+      </c>
+      <c r="F16" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>783</v>
+      </c>
+      <c r="C17" t="s">
+        <v>792</v>
+      </c>
+      <c r="E17" t="s">
+        <v>843</v>
+      </c>
+      <c r="F17" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>779</v>
+      </c>
+      <c r="C18" t="s">
+        <v>794</v>
+      </c>
+      <c r="E18" t="s">
+        <v>844</v>
+      </c>
+      <c r="F18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>757</v>
+      </c>
+      <c r="C19" t="s">
+        <v>796</v>
+      </c>
+      <c r="E19" t="s">
+        <v>850</v>
+      </c>
+      <c r="F19" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>806</v>
+      </c>
+      <c r="C20" t="s">
+        <v>758</v>
+      </c>
+      <c r="E20" t="s">
+        <v>851</v>
+      </c>
+      <c r="F20" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>790</v>
+      </c>
+      <c r="C21" t="s">
+        <v>797</v>
+      </c>
+      <c r="E21" t="s">
+        <v>847</v>
+      </c>
+      <c r="F21" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>763</v>
+      </c>
+      <c r="C22" t="s">
+        <v>799</v>
+      </c>
+      <c r="E22" t="s">
+        <v>848</v>
+      </c>
+      <c r="F22" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>845</v>
+      </c>
+      <c r="C23" t="s">
+        <v>800</v>
+      </c>
+      <c r="E23" t="s">
+        <v>852</v>
+      </c>
+      <c r="F23" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>862</v>
+      </c>
+      <c r="C24" t="s">
+        <v>759</v>
+      </c>
+      <c r="E24" t="s">
+        <v>853</v>
+      </c>
+      <c r="F24" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>866</v>
+      </c>
+      <c r="C25" t="s">
+        <v>801</v>
+      </c>
+      <c r="E25" t="s">
+        <v>854</v>
+      </c>
+      <c r="F25" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>867</v>
+      </c>
+      <c r="C26" t="s">
+        <v>760</v>
+      </c>
+      <c r="E26" t="s">
+        <v>855</v>
+      </c>
+      <c r="F26" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>868</v>
+      </c>
+      <c r="C27" t="s">
+        <v>761</v>
+      </c>
+      <c r="E27" t="s">
+        <v>857</v>
+      </c>
+      <c r="F27" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>869</v>
+      </c>
+      <c r="C28" t="s">
+        <v>762</v>
+      </c>
+      <c r="E28" t="s">
+        <v>858</v>
+      </c>
+      <c r="F28" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>870</v>
+      </c>
+      <c r="C29" t="s">
+        <v>802</v>
+      </c>
+      <c r="E29" t="s">
+        <v>864</v>
+      </c>
+      <c r="F29" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="C30" t="s">
+        <v>813</v>
+      </c>
+      <c r="E30" t="s">
+        <v>848</v>
+      </c>
+      <c r="F30" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31" t="s">
+        <v>815</v>
+      </c>
+      <c r="F31" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32" t="s">
+        <v>817</v>
+      </c>
+      <c r="F32" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" t="s">
+        <v>819</v>
+      </c>
+      <c r="F33" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" t="s">
+        <v>873</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13615,7 +17950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E3ABA9-1871-4E81-97FE-F9C6D9EF0262}">
   <dimension ref="A1:A74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -13753,7 +18088,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -13778,7 +18113,7 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -13798,17 +18133,17 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -13926,8 +18261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00BECAA-F872-4F26-9565-B41BF493CF19}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13969,12 +18304,12 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -13984,12 +18319,12 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -14064,7 +18399,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -14082,7 +18417,7 @@
         <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -14090,7 +18425,7 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -14098,15 +18433,15 @@
         <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B38" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -14114,7 +18449,7 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -14154,7 +18489,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -14189,7 +18524,7 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -14222,7 +18557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6D7707-B686-4CE9-A9BF-790CA6F20512}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -14230,32 +18565,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -14265,213 +18600,213 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B34" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B35" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B36" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B37" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B38" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B39" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B40" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -14484,13 +18819,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0C632C-ED61-43F3-A3A2-FF1DA834629F}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.25" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
     <col min="2" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.25" bestFit="1" customWidth="1"/>
@@ -14502,556 +18837,556 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:8" ht="78.75" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="G2" s="7">
         <v>10</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5">
-      <c r="A3" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G3" s="26">
+        <v>99</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="18"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" ht="43.5" thickBot="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" ht="42.75">
+      <c r="A6" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>665</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="G3" s="23">
-        <v>99</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="15"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" ht="43.5" thickBot="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="4" t="s">
+      <c r="E6" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" ht="42.75">
-      <c r="A6" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="F6" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G6" s="26">
+        <v>20</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="18"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.5">
+      <c r="A9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G9" s="26">
+        <v>30</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="18"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" ht="44.25" thickBot="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" ht="28.5">
+      <c r="A12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="D12" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="G6" s="23">
-        <v>20</v>
-      </c>
-      <c r="H6" s="29" t="s">
+      <c r="F12" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G12" s="26">
+        <v>40</v>
+      </c>
+      <c r="H12" s="32" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="15"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="1:8" ht="28.5">
-      <c r="A9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="F9" s="2" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="18"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" ht="29.25" thickBot="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="G9" s="23">
-        <v>30</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="15"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:8" ht="44.25" thickBot="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="1:8" ht="28.5">
-      <c r="A12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>604</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="G12" s="23">
-        <v>40</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="15"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" ht="43.5" customHeight="1" thickBot="1">
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" ht="83.25" customHeight="1" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G15" s="7">
         <v>50</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.5">
+      <c r="A16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G16" s="26">
+        <v>60</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="18"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:8" ht="29.25" thickBot="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:8" ht="28.5">
+      <c r="A19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G19" s="26">
+        <v>65</v>
+      </c>
+      <c r="H19" s="32" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.5">
-      <c r="A16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="F16" s="2" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="18"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" ht="43.5" thickBot="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="G16" s="23">
-        <v>60</v>
-      </c>
-      <c r="H16" s="29" t="s">
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:8" ht="28.5">
+      <c r="A22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G22" s="26">
+        <v>70</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="18"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="18"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="1:8" ht="29.25" thickBot="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.5">
+      <c r="A27" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G27" s="26">
+        <v>75</v>
+      </c>
+      <c r="H27" s="32" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="15"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8" ht="28.5">
-      <c r="A19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="G19" s="23">
-        <v>65</v>
-      </c>
-      <c r="H19" s="29" t="s">
+    <row r="28" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A28" s="18"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" ht="28.5">
+      <c r="A29" s="18"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="18"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" ht="29.25" thickBot="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="1:8" ht="28.5">
+      <c r="A32" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G32" s="26">
+        <v>80</v>
+      </c>
+      <c r="H32" s="33" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="15"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="1:8" ht="43.5" thickBot="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="1:8" ht="28.5">
-      <c r="A22" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>450</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="G22" s="23">
-        <v>70</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="15"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="15"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="4" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="18"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:8" ht="29.25" thickBot="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="1:8" ht="28.5">
-      <c r="A27" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="G27" s="23">
-        <v>75</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-    </row>
-    <row r="29" spans="1:8" ht="28.5">
-      <c r="A29" s="15"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="15"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-    </row>
-    <row r="32" spans="1:8" ht="28.5">
-      <c r="A32" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="G32" s="23">
-        <v>80</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="15"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-    </row>
-    <row r="34" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="1:8" ht="69.75" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -15062,13 +19397,13 @@
         <v>31</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G35" s="7">
         <v>90</v>
@@ -15143,6 +19478,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15151,204 +19487,204 @@
   <dimension ref="A1:A77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -15358,117 +19694,117 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -15539,7 +19875,7 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -15755,237 +20091,237 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -16166,7 +20502,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -16176,7 +20512,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -16271,7 +20607,7 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="69" spans="1:1">

--- a/変態は踊るWebゲーム開発指示書.xlsx
+++ b/変態は踊るWebゲーム開発指示書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbfa402375cd2dd8/Desktop/game/変態は踊る/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="548" documentId="13_ncr:1_{F1ACA8C2-00E5-42E4-8CE6-1E272D4FAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DAEC812-1A50-42D0-8148-3B3B1AE87667}"/>
+  <xr:revisionPtr revIDLastSave="555" documentId="13_ncr:1_{F1ACA8C2-00E5-42E4-8CE6-1E272D4FAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FB0777A-AD57-4646-9B29-20917738D689}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="877">
   <si>
     <t>あなたは熟練したWebゲーム開発者です。</t>
   </si>
@@ -3542,6 +3542,21 @@
     <rPh sb="6" eb="7">
       <t>ナカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浮気中⇒</t>
+    <rPh sb="0" eb="3">
+      <t>ウワキチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホモ⇒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョコボール・</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3801,6 +3816,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3810,7 +3843,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3828,31 +3861,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -17474,16 +17489,17 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976779D7-B276-4C4F-9A83-5B750AA20676}">
-  <dimension ref="A2:F38"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17923,6 +17939,9 @@
       <c r="C35" t="s">
         <v>859</v>
       </c>
+      <c r="E35" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="36" spans="3:6">
       <c r="C36" t="s">
@@ -17937,6 +17956,16 @@
     <row r="38" spans="3:6">
       <c r="C38" t="s">
         <v>873</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" t="s">
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -18885,196 +18914,196 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>601</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="23" t="s">
         <v>517</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="20">
         <v>99</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="32" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="18"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="18"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="43.5" thickBot="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="19"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="42.75">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="17" t="s">
         <v>665</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="34" t="s">
         <v>435</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="20" t="s">
         <v>521</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="20">
         <v>20</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="21" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="18"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="28.5">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="20" t="s">
         <v>523</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="20">
         <v>30</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="21" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="18"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="44.25" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" ht="28.5">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="20" t="s">
         <v>523</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="20">
         <v>40</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="21" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="18"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="27"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="28"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="83.25" customHeight="1" thickBot="1">
       <c r="A15" s="1" t="s">
@@ -19103,288 +19132,288 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.5">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="20" t="s">
         <v>523</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="20">
         <v>60</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="21" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="18"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="27"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="28"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" ht="28.5">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="20" t="s">
         <v>523</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="20">
         <v>65</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="21" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="18"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="27"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="43.5" thickBot="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="28"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" ht="28.5">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="20" t="s">
         <v>523</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="20">
         <v>70</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="21" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="18"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="27"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="18"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="28"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" ht="28.5">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="20" t="s">
         <v>523</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="20">
         <v>75</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="21" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="27"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" ht="28.5">
-      <c r="A29" s="18"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="27"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="18"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="27"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="28"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" ht="28.5">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="20" t="s">
         <v>523</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="20">
         <v>80</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="22" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="18"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="27"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="28"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" ht="69.75" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
@@ -19412,26 +19441,33 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="G27:G31"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="H19:H21"/>
@@ -19448,33 +19484,26 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="D19:D21"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/変態は踊るWebゲーム開発指示書.xlsx
+++ b/変態は踊るWebゲーム開発指示書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbfa402375cd2dd8/Desktop/game/変態は踊る/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="555" documentId="13_ncr:1_{F1ACA8C2-00E5-42E4-8CE6-1E272D4FAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FB0777A-AD57-4646-9B29-20917738D689}"/>
+  <xr:revisionPtr revIDLastSave="556" documentId="13_ncr:1_{F1ACA8C2-00E5-42E4-8CE6-1E272D4FAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51523374-361F-4BF8-BC19-A8FBEC07D633}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3885" yWindow="1845" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="878">
   <si>
     <t>あなたは熟練したWebゲーム開発者です。</t>
   </si>
@@ -3557,6 +3557,10 @@
   </si>
   <si>
     <t>チョコボール・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一発見者x1, 犯人x1, 探偵x1, アリバイx2, 異常性癖者x1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3816,24 +3820,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3843,7 +3829,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3861,13 +3847,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -17491,7 +17495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976779D7-B276-4C4F-9A83-5B750AA20676}">
   <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -18290,8 +18294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00BECAA-F872-4F26-9565-B41BF493CF19}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -18454,7 +18458,7 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>654</v>
+        <v>877</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -18914,196 +18918,196 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="17" t="s">
         <v>601</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="17" t="s">
         <v>517</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="26">
         <v>99</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="24"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="24"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="43.5" thickBot="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="25"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="25"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="42.75">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="34" t="s">
         <v>665</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="26" t="s">
         <v>521</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="26">
         <v>20</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="32" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="24"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="18"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="28.5">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="26" t="s">
         <v>523</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="26">
         <v>30</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="32" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="24"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="18"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="44.25" thickBot="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="28.5">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="34" t="s">
         <v>602</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="26" t="s">
         <v>523</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="26">
         <v>40</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="32" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="24"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="18"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="83.25" customHeight="1" thickBot="1">
       <c r="A15" s="1" t="s">
@@ -19132,288 +19136,288 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.5">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="26" t="s">
         <v>523</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="26">
         <v>60</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="32" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="24"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="18"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" spans="1:8" ht="28.5">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="26" t="s">
         <v>523</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="26">
         <v>65</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="32" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="24"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="18"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" ht="43.5" thickBot="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="19"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="1:8" ht="28.5">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="34" t="s">
         <v>434</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="26" t="s">
         <v>523</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="26">
         <v>70</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="32" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="24"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="18"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="18"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="24"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="18"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="19"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27" spans="1:8" ht="28.5">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="26" t="s">
         <v>523</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="26">
         <v>75</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="32" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="18"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="1:8" ht="28.5">
-      <c r="A29" s="24"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="18"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="24"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="18"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="19"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" spans="1:8" ht="28.5">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="26" t="s">
         <v>523</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="26">
         <v>80</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="33" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="24"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="18"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="19"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" spans="1:8" ht="69.75" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
@@ -19441,33 +19445,26 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="G32:G34"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="H19:H21"/>
@@ -19484,26 +19481,33 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="D19:D21"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="G6:G8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/変態は踊るWebゲーム開発指示書.xlsx
+++ b/変態は踊るWebゲーム開発指示書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbfa402375cd2dd8/Desktop/game/変態は踊る/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="556" documentId="13_ncr:1_{F1ACA8C2-00E5-42E4-8CE6-1E272D4FAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51523374-361F-4BF8-BC19-A8FBEC07D633}"/>
+  <xr:revisionPtr revIDLastSave="639" documentId="13_ncr:1_{F1ACA8C2-00E5-42E4-8CE6-1E272D4FAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B7C9BE-12A4-4553-8E68-57B5D9F7C396}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3885" yWindow="1845" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="899">
   <si>
     <t>あなたは熟練したWebゲーム開発者です。</t>
   </si>
@@ -3437,21 +3437,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>おぼ”っｲｸﾞ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>❤❤❤</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>贅沢な名だねぇ</t>
     <rPh sb="0" eb="2">
       <t>ゼイタク</t>
@@ -3563,12 +3548,144 @@
     <t>第一発見者x1, 犯人x1, 探偵x1, アリバイx2, 異常性癖者x1</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>おぼ”っｲｸﾞ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>❤❤❤</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tバックを履いた</t>
+    <rPh sb="5" eb="6">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラジャーを被った</t>
+    <rPh sb="6" eb="7">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メスイキ経験者</t>
+    <rPh sb="4" eb="7">
+      <t>ケイケンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>69大好きな</t>
+    <rPh sb="2" eb="4">
+      <t>ダイス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種付けプレスの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鼻フックしてほしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄金プレイ願望の</t>
+    <rPh sb="5" eb="7">
+      <t>ガンボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイズリ最高</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソープへ行こう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶっかけ大好きな</t>
+    <rPh sb="4" eb="6">
+      <t>ダイス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高速ピストンの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公衆便所の</t>
+    <rPh sb="0" eb="4">
+      <t>コウシュウベンジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チンポ・ギス・ハン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プリケツ・オイゲン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンコ・テカリーナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローター挿入中の</t>
+    <rPh sb="4" eb="7">
+      <t>ソウニュウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尿道責めの</t>
+    <rPh sb="0" eb="3">
+      <t>ニョウドウセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床オナでしかイケない</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>想定よりも</t>
+    <rPh sb="0" eb="2">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みんなの</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3687,6 +3804,34 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3714,7 +3859,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3774,11 +3919,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3817,9 +3990,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3829,7 +4018,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3847,33 +4036,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -17493,10 +17671,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976779D7-B276-4C4F-9A83-5B750AA20676}">
-  <dimension ref="A2:F41"/>
+  <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -17508,469 +17686,704 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="33" t="s">
         <v>749</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="33" t="s">
         <v>750</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="34" t="s">
         <v>805</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="33" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="35" t="s">
         <v>771</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="35" t="s">
+        <v>862</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37" t="s">
+        <v>832</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="35" t="s">
+        <v>772</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="35" t="s">
+        <v>807</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="35" t="s">
+        <v>833</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="35" t="s">
+        <v>773</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="35" t="s">
+        <v>780</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="35" t="s">
+        <v>834</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="35" t="s">
+        <v>751</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="35" t="s">
+        <v>781</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="35" t="s">
+        <v>849</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="35" t="s">
+        <v>774</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="35" t="s">
+        <v>782</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="35" t="s">
+        <v>754</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="35" t="s">
+        <v>808</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="35" t="s">
+        <v>784</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="35" t="s">
+        <v>864</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="35" t="s">
+        <v>785</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="35" t="s">
+        <v>856</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="35" t="s">
+        <v>775</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35" t="s">
+        <v>786</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="35" t="s">
+        <v>755</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="35" t="s">
+        <v>787</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="35" t="s">
+        <v>840</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="35" t="s">
+        <v>756</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="35" t="s">
+        <v>788</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="35" t="s">
+        <v>776</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="35" t="s">
+        <v>789</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="35" t="s">
+        <v>777</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="35" t="s">
+        <v>846</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="35" t="s">
+        <v>841</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="35" t="s">
+        <v>778</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="35" t="s">
+        <v>791</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="35" t="s">
+        <v>842</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="35" t="s">
+        <v>783</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="35" t="s">
+        <v>792</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="35" t="s">
+        <v>843</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="35" t="s">
+        <v>779</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="35" t="s">
+        <v>794</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35" t="s">
+        <v>844</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="35" t="s">
+        <v>757</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="35" t="s">
+        <v>796</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="35" t="s">
+        <v>850</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="35" t="s">
+        <v>806</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="35" t="s">
+        <v>851</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="35" t="s">
+        <v>790</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="35" t="s">
+        <v>874</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="35" t="s">
+        <v>847</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="35" t="s">
+        <v>763</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="35" t="s">
+        <v>758</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="35" t="s">
+        <v>848</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="35" t="s">
+        <v>845</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="35" t="s">
+        <v>797</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="35" t="s">
+        <v>852</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="35" t="s">
+        <v>799</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="35" t="s">
+        <v>865</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="35" t="s">
+        <v>800</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="35" t="s">
+        <v>854</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="35" t="s">
+        <v>866</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="35" t="s">
+        <v>759</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="35" t="s">
+        <v>855</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="35" t="s">
+        <v>801</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="35" t="s">
+        <v>857</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="35" t="s">
+        <v>868</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="35" t="s">
+        <v>760</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="35" t="s">
+        <v>858</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="35" t="s">
+        <v>869</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="35" t="s">
+        <v>761</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="35" t="s">
         <v>863</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>832</v>
-      </c>
-      <c r="F3" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>772</v>
-      </c>
-      <c r="C4" t="s">
-        <v>807</v>
-      </c>
-      <c r="E4" t="s">
-        <v>833</v>
-      </c>
-      <c r="F4" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>773</v>
-      </c>
-      <c r="C5" t="s">
-        <v>780</v>
-      </c>
-      <c r="E5" t="s">
-        <v>834</v>
-      </c>
-      <c r="F5" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>751</v>
-      </c>
-      <c r="C6" t="s">
-        <v>781</v>
-      </c>
-      <c r="E6" t="s">
-        <v>849</v>
-      </c>
-      <c r="F6" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>774</v>
-      </c>
-      <c r="C7" t="s">
-        <v>782</v>
-      </c>
-      <c r="E7" t="s">
-        <v>835</v>
-      </c>
-      <c r="F7" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>754</v>
-      </c>
-      <c r="C8" t="s">
-        <v>808</v>
-      </c>
-      <c r="E8" t="s">
-        <v>836</v>
-      </c>
-      <c r="F8" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>752</v>
-      </c>
-      <c r="C9" t="s">
-        <v>784</v>
-      </c>
-      <c r="E9" t="s">
-        <v>865</v>
-      </c>
-      <c r="F9" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>753</v>
-      </c>
-      <c r="C10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E10" t="s">
-        <v>856</v>
-      </c>
-      <c r="F10" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>775</v>
-      </c>
-      <c r="C11" t="s">
-        <v>786</v>
-      </c>
-      <c r="E11" t="s">
-        <v>839</v>
-      </c>
-      <c r="F11" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>755</v>
-      </c>
-      <c r="C12" t="s">
-        <v>787</v>
-      </c>
-      <c r="E12" t="s">
-        <v>840</v>
-      </c>
-      <c r="F12" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>756</v>
-      </c>
-      <c r="C13" t="s">
-        <v>788</v>
-      </c>
-      <c r="E13" t="s">
-        <v>837</v>
-      </c>
-      <c r="F13" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C14" t="s">
-        <v>789</v>
-      </c>
-      <c r="E14" t="s">
-        <v>838</v>
-      </c>
-      <c r="F14" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>777</v>
-      </c>
-      <c r="C15" t="s">
-        <v>846</v>
-      </c>
-      <c r="E15" t="s">
-        <v>841</v>
-      </c>
-      <c r="F15" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>778</v>
-      </c>
-      <c r="C16" t="s">
-        <v>791</v>
-      </c>
-      <c r="E16" t="s">
-        <v>842</v>
-      </c>
-      <c r="F16" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>783</v>
-      </c>
-      <c r="C17" t="s">
-        <v>792</v>
-      </c>
-      <c r="E17" t="s">
-        <v>843</v>
-      </c>
-      <c r="F17" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>779</v>
-      </c>
-      <c r="C18" t="s">
-        <v>794</v>
-      </c>
-      <c r="E18" t="s">
-        <v>844</v>
-      </c>
-      <c r="F18" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>757</v>
-      </c>
-      <c r="C19" t="s">
-        <v>796</v>
-      </c>
-      <c r="E19" t="s">
-        <v>850</v>
-      </c>
-      <c r="F19" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>806</v>
-      </c>
-      <c r="C20" t="s">
-        <v>758</v>
-      </c>
-      <c r="E20" t="s">
-        <v>851</v>
-      </c>
-      <c r="F20" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>790</v>
-      </c>
-      <c r="C21" t="s">
-        <v>797</v>
-      </c>
-      <c r="E21" t="s">
-        <v>847</v>
-      </c>
-      <c r="F21" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>763</v>
-      </c>
-      <c r="C22" t="s">
-        <v>799</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F29" s="35" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="39"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="35" t="s">
+        <v>762</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="35" t="s">
         <v>848</v>
       </c>
-      <c r="F22" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>845</v>
-      </c>
-      <c r="C23" t="s">
-        <v>800</v>
-      </c>
-      <c r="E23" t="s">
-        <v>852</v>
-      </c>
-      <c r="F23" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>862</v>
-      </c>
-      <c r="C24" t="s">
-        <v>759</v>
-      </c>
-      <c r="E24" t="s">
-        <v>853</v>
-      </c>
-      <c r="F24" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>866</v>
-      </c>
-      <c r="C25" t="s">
-        <v>801</v>
-      </c>
-      <c r="E25" t="s">
-        <v>854</v>
-      </c>
-      <c r="F25" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>867</v>
-      </c>
-      <c r="C26" t="s">
-        <v>760</v>
-      </c>
-      <c r="E26" t="s">
-        <v>855</v>
-      </c>
-      <c r="F26" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>868</v>
-      </c>
-      <c r="C27" t="s">
-        <v>761</v>
-      </c>
-      <c r="E27" t="s">
-        <v>857</v>
-      </c>
-      <c r="F27" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>869</v>
-      </c>
-      <c r="C28" t="s">
-        <v>762</v>
-      </c>
-      <c r="E28" t="s">
-        <v>858</v>
-      </c>
-      <c r="F28" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="F30" s="35" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="39"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="35" t="s">
+        <v>802</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="35" t="s">
+        <v>875</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="39"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="35" t="s">
+        <v>813</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="39" t="s">
+        <v>897</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="39"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="35" t="s">
+        <v>815</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="39" t="s">
+        <v>896</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="39"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="35" t="s">
+        <v>817</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="39" t="s">
+        <v>898</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="39"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="35" t="s">
+        <v>819</v>
+      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="39"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="35" t="s">
+        <v>821</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="39"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="35" t="s">
+        <v>859</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="39"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="35" t="s">
         <v>870</v>
       </c>
-      <c r="C29" t="s">
-        <v>802</v>
-      </c>
-      <c r="E29" t="s">
-        <v>864</v>
-      </c>
-      <c r="F29" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="C30" t="s">
-        <v>813</v>
-      </c>
-      <c r="E30" t="s">
-        <v>848</v>
-      </c>
-      <c r="F30" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="C31" t="s">
-        <v>815</v>
-      </c>
-      <c r="F31" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="C32" t="s">
-        <v>817</v>
-      </c>
-      <c r="F32" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6">
-      <c r="C33" t="s">
-        <v>819</v>
-      </c>
-      <c r="F33" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6">
-      <c r="C34" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6">
-      <c r="C35" t="s">
-        <v>859</v>
-      </c>
-      <c r="E35" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6">
-      <c r="C36" t="s">
+      <c r="D38" s="36"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="39"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="35" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="37" spans="3:6">
-      <c r="C37" t="s">
+      <c r="D39" s="36"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="39"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="35" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="38" spans="3:6">
-      <c r="C38" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6">
-      <c r="C40" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6">
-      <c r="C41" t="s">
-        <v>875</v>
-      </c>
+      <c r="D40" s="36"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="39"/>
+      <c r="C41" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="39"/>
+      <c r="C42" s="39" t="s">
+        <v>879</v>
+      </c>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="39"/>
+      <c r="C43" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="39"/>
+      <c r="C44" s="39" t="s">
+        <v>890</v>
+      </c>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="39"/>
+      <c r="C45" s="39" t="s">
+        <v>891</v>
+      </c>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="39"/>
+      <c r="C46" s="39" t="s">
+        <v>892</v>
+      </c>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="39"/>
+      <c r="C47" s="14"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -18294,7 +18707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00BECAA-F872-4F26-9565-B41BF493CF19}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -18458,7 +18871,7 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -18918,196 +19331,196 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="21" t="s">
         <v>517</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="18">
         <v>99</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="30" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="18"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="18"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="43.5" thickBot="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="19"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="42.75">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="18" t="s">
         <v>521</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="18">
         <v>20</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="19" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="18"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="28.5">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="18" t="s">
         <v>523</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="18">
         <v>30</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="19" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="18"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" ht="44.25" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" ht="28.5">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="18" t="s">
         <v>523</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="18">
         <v>40</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="19" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="18"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="27"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="28"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="83.25" customHeight="1" thickBot="1">
       <c r="A15" s="1" t="s">
@@ -19136,288 +19549,288 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.5">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="27" t="s">
         <v>528</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="18" t="s">
         <v>523</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="18">
         <v>60</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="19" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="18"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="27"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="28"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="28.5">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="27" t="s">
         <v>528</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="18" t="s">
         <v>523</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="18">
         <v>65</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="19" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="18"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="27"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="43.5" thickBot="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="28"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="28.5">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="18" t="s">
         <v>523</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="18">
         <v>70</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="19" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="18"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="27"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="18"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="28"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" ht="28.5">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="18" t="s">
         <v>523</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="18">
         <v>75</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="19" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="27"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="28.5">
-      <c r="A29" s="18"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="27"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="18"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="27"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="28"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" ht="28.5">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="18" t="s">
         <v>523</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="18">
         <v>80</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="20" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="18"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="27"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="28"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8" ht="69.75" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
@@ -19445,26 +19858,33 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="G27:G31"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="H19:H21"/>
@@ -19481,33 +19901,26 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="D19:D21"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
